--- a/RR/Esterni/Piano di Progetto/ruoli.xlsx
+++ b/RR/Esterni/Piano di Progetto/ruoli.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Analisi" sheetId="1" r:id="rId4"/>
-    <sheet name="Progettazione" sheetId="2" r:id="rId5"/>
-    <sheet name="Codifica" sheetId="3" r:id="rId6"/>
-    <sheet name="Validazione" sheetId="4" r:id="rId7"/>
+    <sheet name="Analisi" sheetId="1" r:id="rId1"/>
+    <sheet name="Progettazione" sheetId="2" r:id="rId2"/>
+    <sheet name="Codifica" sheetId="3" r:id="rId3"/>
+    <sheet name="Validazione" sheetId="4" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="5" r:id="rId5"/>
+    <sheet name="incremento" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="219">
   <si>
     <t>Table 1</t>
   </si>
@@ -727,15 +734,92 @@
     <t>2
 2</t>
   </si>
+  <si>
+    <t>Manuel Pietro T Giovanni</t>
+  </si>
+  <si>
+    <t>Design Pattern</t>
+  </si>
+  <si>
+    <t>Pietro T
+PietroG
+Manuel</t>
+  </si>
+  <si>
+    <t>Giovanni
+Manuel
+PietroT</t>
+  </si>
+  <si>
+    <t>Mauro
+Matteo</t>
+  </si>
+  <si>
+    <t>Sabato 18</t>
+  </si>
+  <si>
+    <t>Venerdì 17</t>
+  </si>
+  <si>
+    <t>Lunedì 20</t>
+  </si>
+  <si>
+    <t>iniziano a studiarsi il dp per lunedì e magari ci esporranno anche le cose</t>
+  </si>
+  <si>
+    <t>mauro</t>
+  </si>
+  <si>
+    <t>riorganizzazione</t>
+  </si>
+  <si>
+    <t>inserimento cose che mancano</t>
+  </si>
+  <si>
+    <t>vedere standard 12 207</t>
+  </si>
+  <si>
+    <t>Diagrammi di spiegazione dei processi</t>
+  </si>
+  <si>
+    <t>Pietro</t>
+  </si>
+  <si>
+    <t>amministra (jenkins)</t>
+  </si>
+  <si>
+    <t>progettazione</t>
+  </si>
+  <si>
+    <t>giovanni</t>
+  </si>
+  <si>
+    <t>inserire metriche di qualità della progettazione</t>
+  </si>
+  <si>
+    <t>incremento</t>
+  </si>
+  <si>
+    <t>piano di progetto</t>
+  </si>
+  <si>
+    <t>analisi requisiti</t>
+  </si>
+  <si>
+    <t>manuel</t>
+  </si>
+  <si>
+    <t>ore</t>
+  </si>
+  <si>
+    <t>analista</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -752,12 +836,7 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -776,6 +855,10 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="4">
@@ -920,131 +1003,222 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1236,7 +1410,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1245,7 +1419,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1254,7 +1428,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1263,7 +1437,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1272,7 +1446,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1281,7 +1455,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1393,8 +1567,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1402,14 +1576,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1428,7 +1602,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1436,7 +1610,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1464,7 +1638,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1490,7 +1664,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1516,7 +1690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1542,7 +1716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1568,7 +1742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1594,7 +1768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1620,7 +1794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1646,7 +1820,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1672,7 +1846,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1685,9 +1859,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1703,7 +1883,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1722,7 +1902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1748,7 +1928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1774,7 +1954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1800,7 +1980,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1826,7 +2006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1852,7 +2032,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1878,7 +2058,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1904,7 +2084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1930,7 +2110,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1956,7 +2136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1969,9 +2149,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1984,7 +2170,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2003,7 +2189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2033,7 +2219,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2059,7 +2245,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2085,7 +2271,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2111,7 +2297,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2137,7 +2323,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2163,7 +2349,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2189,7 +2375,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2215,7 +2401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2241,7 +2427,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2254,796 +2440,804 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:IV35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.4375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.3984375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.09765625" style="1" customWidth="1"/>
     <col min="10" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" ht="20.65" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" ht="20.65" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s" s="7">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" ht="20.45" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s" s="7">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8">
+      <c r="F4" s="7"/>
+      <c r="G4" s="5">
         <v>3</v>
       </c>
-      <c r="H4" t="s" s="7">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s" s="7">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="20.45" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" t="s" s="7">
+    <row r="5" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>4</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8">
+      <c r="F5" s="7"/>
+      <c r="G5" s="5">
         <v>18</v>
       </c>
-      <c r="H5" t="s" s="7">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="7">
+      <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="20.45" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" t="s" s="7">
+    <row r="6" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>3</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="8">
+      <c r="F6" s="7"/>
+      <c r="G6" s="5">
         <v>10</v>
       </c>
-      <c r="H6" t="s" s="7">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" t="s" s="7">
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="20.45" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" t="s" s="7">
+    <row r="7" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8">
+      <c r="F7" s="7"/>
+      <c r="G7" s="5">
         <v>7</v>
       </c>
-      <c r="H7" t="s" s="7">
+      <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I7" t="s" s="7">
+      <c r="I7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="20.45" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" t="s" s="7">
+    <row r="8" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>5</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="8">
+      <c r="F8" s="7"/>
+      <c r="G8" s="5">
         <v>12</v>
       </c>
-      <c r="H8" t="s" s="7">
+      <c r="H8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I8" t="s" s="7">
+      <c r="I8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="53" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" t="s" s="7">
+    <row r="9" spans="1:9" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s" s="7">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s" s="9">
+      <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="8">
+      <c r="F9" s="7"/>
+      <c r="G9" s="5">
         <v>5</v>
       </c>
-      <c r="H9" t="s" s="7">
+      <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I9" t="s" s="7">
+      <c r="I9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="32.45" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" t="s" s="7">
+    <row r="10" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s" s="7">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s" s="7">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s" s="9">
+      <c r="E10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="8">
+      <c r="F10" s="7"/>
+      <c r="G10" s="5">
         <v>11</v>
       </c>
-      <c r="H10" t="s" s="7">
+      <c r="H10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I10" t="s" s="7">
+      <c r="I10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="32.45" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" t="s" s="7">
+    <row r="11" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s" s="7">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s" s="7">
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s" s="9">
+      <c r="E11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8">
+      <c r="F11" s="7"/>
+      <c r="G11" s="5">
         <v>2</v>
       </c>
-      <c r="H11" t="s" s="7">
+      <c r="H11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I11" t="s" s="7">
+      <c r="I11" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="41" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" t="s" s="7">
+    <row r="12" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="s" s="7">
+      <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s" s="7">
+      <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s" s="9">
+      <c r="E12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="8">
+      <c r="F12" s="7"/>
+      <c r="G12" s="5">
         <v>1</v>
       </c>
-      <c r="H12" t="s" s="7">
+      <c r="H12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I12" t="s" s="7">
+      <c r="I12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="20.45" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" t="s" s="7">
+    <row r="13" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s" s="7">
+      <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s" s="7">
+      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>6</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="8">
+      <c r="F13" s="7"/>
+      <c r="G13" s="5">
         <v>14</v>
       </c>
-      <c r="H13" t="s" s="7">
+      <c r="H13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I13" t="s" s="7">
+      <c r="I13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" ht="80" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" t="s" s="7">
+    <row r="14" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s" s="7">
+      <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s" s="7">
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s" s="9">
+      <c r="E14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="8">
+      <c r="F14" s="7"/>
+      <c r="G14" s="5">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="7">
+      <c r="H14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I14" t="s" s="7">
+      <c r="I14" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" ht="40.5" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" t="s" s="7">
+    <row r="15" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s" s="7">
+      <c r="D15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s" s="9">
+      <c r="E15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8">
+      <c r="F15" s="7"/>
+      <c r="G15" s="5">
         <v>16</v>
       </c>
-      <c r="H15" t="s" s="7">
+      <c r="H15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I15" t="s" s="7">
+      <c r="I15" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" ht="41" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" t="s" s="7">
+    <row r="16" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s" s="7">
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s" s="7">
+      <c r="D16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s" s="9">
+      <c r="E16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
         <v>14</v>
       </c>
-      <c r="H16" t="s" s="7">
+      <c r="H16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I16" t="s" s="7">
+      <c r="I16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" ht="20.45" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" t="s" s="7">
+    <row r="17" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s" s="7">
+      <c r="C17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s" s="7">
+      <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>2</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="8">
+      <c r="F17" s="7"/>
+      <c r="G17" s="5">
         <v>8</v>
       </c>
-      <c r="H17" t="s" s="7">
+      <c r="H17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I17" t="s" s="7">
+      <c r="I17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" ht="20.45" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" t="s" s="7">
+    <row r="18" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s" s="7">
+      <c r="C18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D18" t="s" s="7">
+      <c r="D18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="8">
+      <c r="F18" s="7"/>
+      <c r="G18" s="5">
         <v>8</v>
       </c>
-      <c r="H18" t="s" s="7">
+      <c r="H18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I18" t="s" s="7">
+      <c r="I18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" ht="20.45" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" t="s" s="7">
+    <row r="19" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s" s="7">
+      <c r="C19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s" s="7">
+      <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <v>2</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="8">
+      <c r="F19" s="7"/>
+      <c r="G19" s="5">
         <v>2</v>
       </c>
-      <c r="H19" t="s" s="7">
+      <c r="H19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I19" t="s" s="7">
+      <c r="I19" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" ht="20.45" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" t="s" s="7">
+    <row r="20" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s" s="7">
+      <c r="C20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D20" t="s" s="7">
+      <c r="D20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>2</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="8">
+      <c r="F20" s="7"/>
+      <c r="G20" s="5">
         <v>7</v>
       </c>
-      <c r="H20" t="s" s="7">
+      <c r="H20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I20" t="s" s="7">
+      <c r="I20" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="20.45" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" t="s" s="7">
+    <row r="21" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s" s="7">
+      <c r="C21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D21" t="s" s="7">
+      <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>6</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="8">
+      <c r="F21" s="7"/>
+      <c r="G21" s="5">
         <v>7</v>
       </c>
-      <c r="H21" t="s" s="7">
+      <c r="H21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I21" t="s" s="7">
+      <c r="I21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="30.75" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" t="s" s="7">
+    <row r="22" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s" s="7">
+      <c r="C22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D22" t="s" s="7">
+      <c r="D22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E22" t="s" s="9">
+      <c r="E22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="8">
+      <c r="F22" s="7"/>
+      <c r="G22" s="5">
         <v>2</v>
       </c>
-      <c r="H22" t="s" s="7">
+      <c r="H22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I22" t="s" s="7">
+      <c r="I22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" ht="20.45" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" t="s" s="7">
+    <row r="23" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s" s="7">
+      <c r="C23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D23" t="s" s="7">
+      <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>2</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="8">
+      <c r="F23" s="7"/>
+      <c r="G23" s="5">
         <v>13</v>
       </c>
-      <c r="H23" t="s" s="7">
+      <c r="H23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I23" t="s" s="7">
+      <c r="I23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="32.45" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" t="s" s="7">
+    <row r="24" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s" s="7">
+      <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D24" t="s" s="7">
+      <c r="D24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E24" t="s" s="9">
+      <c r="E24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5">
         <v>1</v>
       </c>
-      <c r="H24" t="s" s="7">
+      <c r="H24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I24" t="s" s="7">
+      <c r="I24" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" ht="39.75" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" t="s" s="7">
+    <row r="25" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C25" t="s" s="7">
+      <c r="C25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D25" t="s" s="7">
+      <c r="D25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E25" t="s" s="9">
+      <c r="E25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="8">
+      <c r="F25" s="7"/>
+      <c r="G25" s="5">
         <v>2</v>
       </c>
-      <c r="H25" t="s" s="7">
+      <c r="H25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I25" t="s" s="7">
+      <c r="I25" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="27.75" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" t="s" s="7">
+    <row r="26" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C26" t="s" s="7">
+      <c r="C26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D26" t="s" s="7">
+      <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="6">
         <v>2</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" ht="20.45" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" t="s" s="7">
+      <c r="F26" s="7"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C27" t="s" s="7">
+      <c r="C27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D27" t="s" s="7">
+      <c r="D27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <v>2</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" ht="20.45" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" t="s" s="7">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C28" t="s" s="7">
+      <c r="C28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D28" t="s" s="7">
+      <c r="D28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="6">
         <v>10</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" ht="32.45" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" t="s" s="7">
+      <c r="F28" s="7"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C29" t="s" s="7">
+      <c r="C29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D29" t="s" s="7">
+      <c r="D29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E29" t="s" s="9">
+      <c r="E29" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" ht="27.75" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" t="s" s="7">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C30" t="s" s="7">
+      <c r="C30" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D30" t="s" s="7">
+      <c r="D30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <v>10</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" ht="20.45" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" t="s" s="7">
+      <c r="F30" s="7"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C31" t="s" s="7">
+      <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D31" t="s" s="7">
+      <c r="D31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="6">
         <v>1</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" ht="20.45" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" ht="20.45" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" ht="20.45" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" ht="20.45" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3051,784 +3245,783 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="11" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="3.375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="11" customWidth="1"/>
-    <col min="10" max="256" width="8.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="3.3984375" style="8" customWidth="1"/>
+    <col min="6" max="9" width="9.09765625" style="8" customWidth="1"/>
+    <col min="10" max="256" width="8.59765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s" s="7">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="14">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" ht="29" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s" s="7">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C4" t="s" s="14">
+      <c r="C4" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="E4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F4" t="s" s="7">
+      <c r="F4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" t="s" s="7">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s" s="9">
+      <c r="D5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>2</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" t="s" s="7">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="s" s="9">
+      <c r="D6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>6</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" t="s" s="7">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="D7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" t="s" s="7">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C8" t="s" s="14">
+      <c r="C8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D8" t="s" s="9">
+      <c r="D8" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>6</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" t="s" s="7">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C9" t="s" s="14">
+      <c r="C9" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D9" t="s" s="9">
+      <c r="D9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>2</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" ht="39.75" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" t="s" s="7">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C10" t="s" s="14">
+      <c r="C10" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D10" t="s" s="9">
+      <c r="D10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E10" t="s" s="9">
+      <c r="E10" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" ht="41.25" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" t="s" s="7">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C11" t="s" s="14">
+      <c r="C11" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D11" t="s" s="9">
+      <c r="D11" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E11" t="s" s="9">
+      <c r="E11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" ht="41.25" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" t="s" s="7">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C12" t="s" s="14">
+      <c r="C12" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D12" t="s" s="9">
+      <c r="D12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E12" t="s" s="9">
+      <c r="E12" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" ht="25.5" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" t="s" s="7">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C13" t="s" s="14">
+      <c r="C13" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D13" t="s" s="9">
+      <c r="D13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E13" t="s" s="9">
+      <c r="E13" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" ht="29" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" t="s" s="7">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C14" t="s" s="14">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s" s="9">
+      <c r="D14" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E14" t="s" s="9">
+      <c r="E14" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" t="s" s="7">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s" s="14">
+      <c r="C15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D15" t="s" s="9">
+      <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>4</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" ht="63.75" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" t="s" s="7">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C16" t="s" s="14">
+      <c r="C16" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D16" t="s" s="9">
+      <c r="D16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E16" t="s" s="9">
+      <c r="E16" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F16" t="s" s="7">
+      <c r="F16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" t="s" s="7">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C17" t="s" s="14">
+      <c r="C17" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D17" t="s" s="9">
+      <c r="D17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>4</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" ht="25.5" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" t="s" s="7">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C18" t="s" s="14">
+      <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s" s="9">
+      <c r="D18" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E18" t="s" s="9">
+      <c r="E18" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" t="s" s="7">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C19" t="s" s="14">
+      <c r="C19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D19" t="s" s="9">
+      <c r="D19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <v>6</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" t="s" s="7">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C20" t="s" s="14">
+      <c r="C20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D20" t="s" s="9">
+      <c r="D20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>2</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" t="s" s="7">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s" s="14">
+      <c r="C21" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D21" t="s" s="9">
+      <c r="D21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>2</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" ht="20" customHeight="1">
-      <c r="A28" t="s" s="19">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="15">
         <v>9</v>
       </c>
-      <c r="C28" t="s" s="19">
+      <c r="C28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" ht="20" customHeight="1">
-      <c r="A29" t="s" s="19">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="15">
         <v>9</v>
       </c>
-      <c r="C29" t="s" s="19">
+      <c r="C29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" ht="20" customHeight="1">
-      <c r="A30" t="s" s="19">
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="15">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="19">
+      <c r="C30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" ht="20" customHeight="1">
-      <c r="A31" t="s" s="19">
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="15">
         <v>6</v>
       </c>
-      <c r="C31" t="s" s="19">
+      <c r="C31" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" ht="20" customHeight="1">
-      <c r="A32" t="s" s="19">
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="15">
         <v>8</v>
       </c>
-      <c r="C32" t="s" s="19">
+      <c r="C32" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" ht="20" customHeight="1">
-      <c r="A33" t="s" s="19">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="15">
         <v>24</v>
       </c>
-      <c r="C33" t="s" s="19">
+      <c r="C33" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="34" ht="20" customHeight="1">
-      <c r="A34" t="s" s="19">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="15">
         <v>22</v>
       </c>
-      <c r="C34" t="s" s="19">
+      <c r="C34" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" ht="20" customHeight="1">
-      <c r="A35" t="s" s="19">
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="15">
         <v>16</v>
       </c>
-      <c r="C35" t="s" s="19">
+      <c r="C35" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" ht="20" customHeight="1">
-      <c r="A36" t="s" s="19">
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="15">
         <v>12</v>
       </c>
-      <c r="C36" t="s" s="19">
+      <c r="C36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-    </row>
-    <row r="37" ht="20" customHeight="1">
-      <c r="A37" t="s" s="19">
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="15">
         <v>11</v>
       </c>
-      <c r="C37" t="s" s="19">
+      <c r="C37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" ht="20" customHeight="1">
-      <c r="A38" t="s" s="19">
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="15">
         <v>8</v>
       </c>
-      <c r="C38" t="s" s="19">
+      <c r="C38" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-    </row>
-    <row r="39" ht="20" customHeight="1">
-      <c r="A39" t="s" s="19">
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="15">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="19">
+      <c r="C39" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-    </row>
-    <row r="40" ht="20" customHeight="1">
-      <c r="A40" t="s" s="19">
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+    </row>
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="15">
         <v>7</v>
       </c>
-      <c r="C40" t="s" s="19">
+      <c r="C40" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" ht="20" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-    </row>
-    <row r="42" ht="20" customHeight="1">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-    </row>
-    <row r="43" ht="20" customHeight="1">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-    </row>
-    <row r="44" ht="20" customHeight="1">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-    </row>
-    <row r="45" ht="20" customHeight="1">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-    </row>
-    <row r="46" ht="20" customHeight="1">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-    </row>
-    <row r="47" ht="20" customHeight="1">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3836,869 +4029,863 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="21" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="23.625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="3.375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="21" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="8.625" style="21" customWidth="1"/>
-    <col min="14" max="256" width="8.625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="3.3984375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="17" customWidth="1"/>
+    <col min="8" max="256" width="8.59765625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" t="s" s="24">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="20">
         <v>12</v>
       </c>
-      <c r="I2" t="s" s="24">
+      <c r="I2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s" s="7">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" t="s" s="24">
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="20">
         <v>2</v>
       </c>
-      <c r="I3" t="s" s="24">
+      <c r="I3" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4" ht="25.5" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s" s="7">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="E4" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" t="s" s="24">
+      <c r="F4" s="19"/>
+      <c r="G4" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="20">
         <v>24</v>
       </c>
-      <c r="I4" t="s" s="24">
+      <c r="I4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" t="s" s="7">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" t="s" s="24">
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="20">
         <v>22</v>
       </c>
-      <c r="I5" t="s" s="24">
+      <c r="I5" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" t="s" s="7">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>2</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" t="s" s="24">
+      <c r="F6" s="19"/>
+      <c r="G6" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="20">
         <v>14</v>
       </c>
-      <c r="I6" t="s" s="24">
+      <c r="I6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" t="s" s="7">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" t="s" s="24">
+      <c r="F7" s="19"/>
+      <c r="G7" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="20">
         <v>10</v>
       </c>
-      <c r="I7" t="s" s="24">
+      <c r="I7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="8" ht="25.5" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" t="s" s="7">
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E8" t="s" s="9">
+      <c r="E8" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" t="s" s="24">
+      <c r="F8" s="19"/>
+      <c r="G8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="20">
         <v>10</v>
       </c>
-      <c r="I8" t="s" s="24">
+      <c r="I8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-    </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" t="s" s="7">
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D9" t="s" s="7">
+      <c r="D9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E9" t="s" s="9">
+      <c r="E9" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" t="s" s="24">
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="20">
         <v>10</v>
       </c>
-      <c r="I9" t="s" s="24">
+      <c r="I9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" ht="51" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" t="s" s="7">
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C10" t="s" s="7">
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s" s="7">
+      <c r="D10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>4</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" ht="51" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" t="s" s="7">
+      <c r="F10" s="19"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C11" t="s" s="7">
+      <c r="C11" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D11" t="s" s="7">
+      <c r="D11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E11" t="s" s="9">
+      <c r="E11" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" t="s" s="24">
+      <c r="F11" s="19"/>
+      <c r="G11" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="20">
         <v>26</v>
       </c>
-      <c r="I11" t="s" s="24">
+      <c r="I11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" t="s" s="7">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C12" t="s" s="7">
+      <c r="C12" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D12" t="s" s="7">
+      <c r="D12" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E12" t="s" s="9">
+      <c r="E12" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" t="s" s="24">
+      <c r="F12" s="19"/>
+      <c r="G12" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="20">
         <v>26</v>
       </c>
-      <c r="I12" t="s" s="24">
+      <c r="I12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="13" ht="25.5" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" t="s" s="7">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C13" t="s" s="7">
+      <c r="C13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D13" t="s" s="7">
+      <c r="D13" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E13" t="s" s="9">
+      <c r="E13" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" t="s" s="24">
+      <c r="F13" s="19"/>
+      <c r="G13" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="20">
         <v>27</v>
       </c>
-      <c r="I13" t="s" s="24">
+      <c r="I13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" t="s" s="7">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C14" t="s" s="7">
+      <c r="C14" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D14" t="s" s="7">
+      <c r="D14" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>4</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" t="s" s="24">
+      <c r="F14" s="19"/>
+      <c r="G14" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="20">
         <v>29</v>
       </c>
-      <c r="I14" t="s" s="24">
+      <c r="I14" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-    </row>
-    <row r="15" ht="29" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" t="s" s="7">
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D15" t="s" s="7">
+      <c r="D15" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E15" t="s" s="9">
+      <c r="E15" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" t="s" s="24">
+      <c r="F15" s="19"/>
+      <c r="G15" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="20">
         <v>24</v>
       </c>
-      <c r="I15" t="s" s="24">
+      <c r="I15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" ht="41.6" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" t="s" s="7">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="41.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C16" t="s" s="7">
+      <c r="C16" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D16" t="s" s="7">
+      <c r="D16" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E16" t="s" s="9">
+      <c r="E16" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" t="s" s="24">
+      <c r="F16" s="19"/>
+      <c r="G16" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="20">
         <v>20</v>
       </c>
-      <c r="I16" t="s" s="24">
+      <c r="I16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-    </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" t="s" s="7">
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C17" t="s" s="7">
+      <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s" s="7">
+      <c r="D17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>4</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" t="s" s="24">
+      <c r="F17" s="19"/>
+      <c r="G17" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="20">
         <v>28</v>
       </c>
-      <c r="I17" t="s" s="24">
+      <c r="I17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-    </row>
-    <row r="18" ht="77" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" t="s" s="7">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" t="s" s="7">
+      <c r="C18" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D18" t="s" s="7">
+      <c r="D18" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E18" t="s" s="9">
+      <c r="E18" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" t="s" s="24">
+      <c r="F18" s="21"/>
+      <c r="G18" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="20">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="24">
+      <c r="I18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-    </row>
-    <row r="19" ht="51" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" t="s" s="7">
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s" s="7">
+      <c r="C19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D19" t="s" s="7">
+      <c r="D19" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E19" t="s" s="9">
+      <c r="E19" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" t="s" s="24">
+      <c r="F19" s="22"/>
+      <c r="G19" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="20">
         <v>19</v>
       </c>
-      <c r="I19" t="s" s="24">
+      <c r="I19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row r="20" ht="41" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" t="s" s="7">
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" t="s" s="7">
+      <c r="C20" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D20" t="s" s="7">
+      <c r="D20" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E20" t="s" s="9">
+      <c r="E20" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" t="s" s="24">
+      <c r="F20" s="19"/>
+      <c r="G20" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="20">
         <v>24</v>
       </c>
-      <c r="I20" t="s" s="24">
+      <c r="I20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-    </row>
-    <row r="21" ht="29" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" t="s" s="7">
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C21" t="s" s="7">
+      <c r="C21" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D21" t="s" s="7">
+      <c r="D21" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E21" t="s" s="9">
+      <c r="E21" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-    </row>
-    <row r="22" ht="29" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" t="s" s="7">
+      <c r="F21" s="19"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C22" t="s" s="7">
+      <c r="C22" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D22" t="s" s="7">
+      <c r="D22" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E22" t="s" s="9">
+      <c r="E22" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" t="s" s="24">
+      <c r="F22" s="19"/>
+      <c r="G22" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="20">
         <v>15</v>
       </c>
-      <c r="I22" t="s" s="24">
+      <c r="I22" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-    </row>
-    <row r="23" ht="29" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" t="s" s="7">
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C23" t="s" s="14">
+      <c r="C23" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D23" t="s" s="9">
+      <c r="D23" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E23" t="s" s="9">
+      <c r="E23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-    </row>
-    <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" t="s" s="7">
+      <c r="F23" s="19"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s" s="14">
+      <c r="C24" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D24" t="s" s="9">
+      <c r="D24" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <v>2</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" t="s" s="24">
+      <c r="F24" s="19"/>
+      <c r="G24" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="20">
         <v>10</v>
       </c>
-      <c r="I24" t="s" s="24">
+      <c r="I24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-    </row>
-    <row r="25" ht="29" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" t="s" s="7">
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C25" t="s" s="7">
+      <c r="C25" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D25" t="s" s="7">
+      <c r="D25" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E25" t="s" s="9">
+      <c r="E25" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-    </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" t="s" s="27">
+      <c r="F25" s="19"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C26" t="s" s="27">
+      <c r="C26" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D26" t="s" s="27">
+      <c r="D26" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="24">
         <v>2</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-    </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-    </row>
-    <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-    </row>
-    <row r="29" ht="20" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-    </row>
-    <row r="31" ht="20" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-    </row>
-    <row r="32" ht="20" customHeight="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-    </row>
-    <row r="33" ht="20" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-    </row>
-    <row r="34" ht="20" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-    </row>
-    <row r="35" ht="20" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -4706,576 +4893,772 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="29" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="29" customWidth="1"/>
-    <col min="5" max="5" width="3.375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="11.6719" style="29" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="19.625" style="29" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="29" customWidth="1"/>
-    <col min="13" max="13" width="8.625" style="29" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="29" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="29" customWidth="1"/>
-    <col min="16" max="16" width="8.625" style="29" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="29" customWidth="1"/>
-    <col min="18" max="256" width="8.625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="3.3984375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" style="25" customWidth="1"/>
+    <col min="7" max="9" width="9.09765625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="19.59765625" style="25" customWidth="1"/>
+    <col min="12" max="16" width="8.59765625" style="25" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="25" customWidth="1"/>
+    <col min="18" max="256" width="8.59765625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s" s="7">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+    </row>
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="23"/>
-      <c r="K3" t="s" s="30">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="26">
         <v>6</v>
       </c>
-      <c r="M3" t="s" s="30">
+      <c r="M3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s" s="7">
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>2</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="23"/>
-      <c r="K4" t="s" s="30">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="26">
         <v>6</v>
       </c>
-      <c r="M4" t="s" s="30">
+      <c r="M4" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" t="s" s="7">
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s" s="9">
+      <c r="D5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="23"/>
-      <c r="K5" t="s" s="30">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="26">
         <v>8</v>
       </c>
-      <c r="M5" t="s" s="30">
+      <c r="M5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" t="s" s="7">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="s" s="9">
+      <c r="D6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>4</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="23"/>
-      <c r="K6" t="s" s="30">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="26">
         <v>12</v>
       </c>
-      <c r="M6" t="s" s="30">
+      <c r="M6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" t="s" s="7">
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="D7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="23"/>
-      <c r="K7" t="s" s="30">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="26">
         <v>8</v>
       </c>
-      <c r="M7" t="s" s="30">
+      <c r="M7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-    </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" t="s" s="7">
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D8" t="s" s="9">
+      <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>4</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="23"/>
-      <c r="K8" t="s" s="30">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="26">
         <v>6</v>
       </c>
-      <c r="M8" t="s" s="30">
+      <c r="M8" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-    </row>
-    <row r="9" ht="65" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" t="s" s="7">
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D9" t="s" s="9">
+      <c r="D9" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E9" t="s" s="9">
+      <c r="E9" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="23"/>
-      <c r="K9" t="s" s="30">
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="26">
         <v>4</v>
       </c>
-      <c r="M9" t="s" s="30">
+      <c r="M9" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" t="s" s="7">
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C10" t="s" s="7">
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s" s="9">
+      <c r="D10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="23"/>
-      <c r="K10" t="s" s="30">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="26">
         <v>9</v>
       </c>
-      <c r="M10" t="s" s="30">
+      <c r="M10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-    </row>
-    <row r="11" ht="20.25" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" t="s" s="7">
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C11" t="s" s="7">
+      <c r="C11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D11" t="s" s="9">
+      <c r="D11" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>12</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="23"/>
-      <c r="K11" t="s" s="30">
+      <c r="F11" s="7"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="26">
         <v>3</v>
       </c>
-      <c r="M11" t="s" s="30">
+      <c r="M11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-    </row>
-    <row r="12" ht="29" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" t="s" s="7">
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C12" t="s" s="7">
+      <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s" s="9">
+      <c r="D12" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E12" t="s" s="9">
+      <c r="E12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="23"/>
-      <c r="K12" t="s" s="30">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="26">
         <v>5</v>
       </c>
-      <c r="M12" t="s" s="30">
+      <c r="M12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-    </row>
-    <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" t="s" s="7">
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C13" t="s" s="7">
+      <c r="C13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D13" t="s" s="9">
+      <c r="D13" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>8</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="23"/>
-      <c r="K13" t="s" s="30">
+      <c r="F13" s="7"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="26">
         <v>5</v>
       </c>
-      <c r="M13" t="s" s="30">
+      <c r="M13" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" t="s" s="7">
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C14" t="s" s="7">
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s" s="9">
+      <c r="D14" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E14" t="s" s="9">
+      <c r="E14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="23"/>
-      <c r="K14" t="s" s="30">
+      <c r="F14" s="7"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="26">
         <v>4</v>
       </c>
-      <c r="M14" t="s" s="30">
+      <c r="M14" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-    </row>
-    <row r="15" ht="53" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" t="s" s="7">
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D15" t="s" s="9">
+      <c r="D15" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E15" t="s" s="9">
+      <c r="E15" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="23"/>
-      <c r="K15" t="s" s="30">
+      <c r="F15" s="7"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="26">
         <v>7</v>
       </c>
-      <c r="M15" t="s" s="30">
+      <c r="M15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" t="s" s="7">
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+    </row>
+    <row r="16" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C16" t="s" s="7">
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s" s="9">
+      <c r="D16" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E16" t="s" s="9">
+      <c r="E16" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="23"/>
-      <c r="K16" t="s" s="30">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="26">
         <v>7</v>
       </c>
-      <c r="M16" t="s" s="30">
+      <c r="M16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-    </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" t="s" s="7">
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s" s="14">
+      <c r="C17" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D17" t="s" s="9">
+      <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>2</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="23"/>
-      <c r="K17" t="s" s="30">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="26">
         <v>1</v>
       </c>
-      <c r="M17" t="s" s="30">
+      <c r="M17" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>